--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Slit2-Gpc1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Slit2-Gpc1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.100106</v>
+        <v>0.026992</v>
       </c>
       <c r="H2">
-        <v>0.300318</v>
+        <v>0.08097599999999999</v>
       </c>
       <c r="I2">
-        <v>0.01338951718926161</v>
+        <v>0.004182906599909731</v>
       </c>
       <c r="J2">
-        <v>0.01405521613829616</v>
+        <v>0.00420788870005516</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.9640756666666667</v>
+        <v>1.525469666666667</v>
       </c>
       <c r="N2">
-        <v>2.892227</v>
+        <v>4.576409</v>
       </c>
       <c r="O2">
-        <v>0.03116597139157128</v>
+        <v>0.02884292053092702</v>
       </c>
       <c r="P2">
-        <v>0.03985704515756099</v>
+        <v>0.03941949540871108</v>
       </c>
       <c r="Q2">
-        <v>0.09650975868733334</v>
+        <v>0.04117547724266667</v>
       </c>
       <c r="R2">
-        <v>0.8685878281860001</v>
+        <v>0.370579295184</v>
       </c>
       <c r="S2">
-        <v>0.0004172973096674793</v>
+        <v>0.0001206472426494865</v>
       </c>
       <c r="T2">
-        <v>0.0005601993843233502</v>
+        <v>0.0001658728492921916</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.100106</v>
+        <v>0.026992</v>
       </c>
       <c r="H3">
-        <v>0.300318</v>
+        <v>0.08097599999999999</v>
       </c>
       <c r="I3">
-        <v>0.01338951718926161</v>
+        <v>0.004182906599909731</v>
       </c>
       <c r="J3">
-        <v>0.01405521613829616</v>
+        <v>0.00420788870005516</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.821209666666666</v>
+        <v>6.821209666666667</v>
       </c>
       <c r="N3">
         <v>20.463629</v>
       </c>
       <c r="O3">
-        <v>0.2205113485150814</v>
+        <v>0.1289724814852373</v>
       </c>
       <c r="P3">
-        <v>0.2820040699227877</v>
+        <v>0.1762661356122381</v>
       </c>
       <c r="Q3">
-        <v>0.6828440148913333</v>
+        <v>0.1841180913226667</v>
       </c>
       <c r="R3">
-        <v>6.145596134022</v>
+        <v>1.657062821904</v>
       </c>
       <c r="S3">
-        <v>0.00295254049136994</v>
+        <v>0.0005394798440113347</v>
       </c>
       <c r="T3">
-        <v>0.003963628154643965</v>
+        <v>0.0007417082802451271</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.100106</v>
+        <v>0.026992</v>
       </c>
       <c r="H4">
-        <v>0.300318</v>
+        <v>0.08097599999999999</v>
       </c>
       <c r="I4">
-        <v>0.01338951718926161</v>
+        <v>0.004182906599909731</v>
       </c>
       <c r="J4">
-        <v>0.01405521613829616</v>
+        <v>0.00420788870005516</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.420191666666667</v>
+        <v>1.197510666666667</v>
       </c>
       <c r="N4">
-        <v>4.260575</v>
+        <v>3.592532</v>
       </c>
       <c r="O4">
-        <v>0.04591097398705006</v>
+        <v>0.02264201363575945</v>
       </c>
       <c r="P4">
-        <v>0.05871390114682403</v>
+        <v>0.03094474263109954</v>
       </c>
       <c r="Q4">
-        <v>0.1421697069833334</v>
+        <v>0.03232320791466667</v>
       </c>
       <c r="R4">
-        <v>1.27952736285</v>
+        <v>0.290908871232</v>
       </c>
       <c r="S4">
-        <v>0.0006147257753753495</v>
+        <v>9.470942827226434E-05</v>
       </c>
       <c r="T4">
-        <v>0.0008252365709411668</v>
+        <v>0.000130212032843519</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.100106</v>
+        <v>0.026992</v>
       </c>
       <c r="H5">
-        <v>0.300318</v>
+        <v>0.08097599999999999</v>
       </c>
       <c r="I5">
-        <v>0.01338951718926161</v>
+        <v>0.004182906599909731</v>
       </c>
       <c r="J5">
-        <v>0.01405521613829616</v>
+        <v>0.00420788870005516</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>20.2357845</v>
+        <v>42.571562</v>
       </c>
       <c r="N5">
-        <v>40.471569</v>
+        <v>85.143124</v>
       </c>
       <c r="O5">
-        <v>0.6541684461278472</v>
+        <v>0.8049246776086439</v>
       </c>
       <c r="P5">
-        <v>0.5577284055609555</v>
+        <v>0.7333913960927264</v>
       </c>
       <c r="Q5">
-        <v>2.025723443157001</v>
+        <v>1.149091601504</v>
       </c>
       <c r="R5">
-        <v>12.154340658942</v>
+        <v>6.894549609024</v>
       </c>
       <c r="S5">
-        <v>0.008758999654101369</v>
+        <v>0.003366924746399409</v>
       </c>
       <c r="T5">
-        <v>0.007838993286626529</v>
+        <v>0.003086029368336262</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.100106</v>
+        <v>0.026992</v>
       </c>
       <c r="H6">
-        <v>0.300318</v>
+        <v>0.08097599999999999</v>
       </c>
       <c r="I6">
-        <v>0.01338951718926161</v>
+        <v>0.004182906599909731</v>
       </c>
       <c r="J6">
-        <v>0.01405521613829616</v>
+        <v>0.00420788870005516</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.492337666666667</v>
+        <v>0.7731246666666668</v>
       </c>
       <c r="N6">
-        <v>4.477012999999999</v>
+        <v>2.319374</v>
       </c>
       <c r="O6">
-        <v>0.04824325997845007</v>
+        <v>0.01461790673943223</v>
       </c>
       <c r="P6">
-        <v>0.06169657821187188</v>
+        <v>0.01997823025522497</v>
       </c>
       <c r="Q6">
-        <v>0.1493919544593333</v>
+        <v>0.02086818100266667</v>
       </c>
       <c r="R6">
-        <v>1.344527590134</v>
+        <v>0.187813629024</v>
       </c>
       <c r="S6">
-        <v>0.000645953958747474</v>
+        <v>6.114533857723602E-05</v>
       </c>
       <c r="T6">
-        <v>0.0008671587417611532</v>
+        <v>8.406616933806128E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>18.901559</v>
       </c>
       <c r="I7">
-        <v>0.8427158849431019</v>
+        <v>0.976381346197431</v>
       </c>
       <c r="J7">
-        <v>0.8846139661817043</v>
+        <v>0.9822127115383066</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.9640756666666667</v>
+        <v>1.525469666666667</v>
       </c>
       <c r="N7">
-        <v>2.892227</v>
+        <v>4.576409</v>
       </c>
       <c r="O7">
-        <v>0.03116597139157128</v>
+        <v>0.02884292053092702</v>
       </c>
       <c r="P7">
-        <v>0.03985704515756099</v>
+        <v>0.03941949540871108</v>
       </c>
       <c r="Q7">
-        <v>6.074177697988111</v>
+        <v>9.611251635736778</v>
       </c>
       <c r="R7">
-        <v>54.667599281893</v>
+        <v>86.50126472163099</v>
       </c>
       <c r="S7">
-        <v>0.02626405916135939</v>
+        <v>0.02816168957625204</v>
       </c>
       <c r="T7">
-        <v>0.03525809879711332</v>
+        <v>0.03871832947286193</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>18.901559</v>
       </c>
       <c r="I8">
-        <v>0.8427158849431019</v>
+        <v>0.976381346197431</v>
       </c>
       <c r="J8">
-        <v>0.8846139661817043</v>
+        <v>0.9822127115383066</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.821209666666666</v>
+        <v>6.821209666666667</v>
       </c>
       <c r="N8">
         <v>20.463629</v>
       </c>
       <c r="O8">
-        <v>0.2205113485150814</v>
+        <v>0.1289724814852373</v>
       </c>
       <c r="P8">
-        <v>0.2820040699227877</v>
+        <v>0.1762661356122381</v>
       </c>
       <c r="Q8">
-        <v>42.9771656552901</v>
+        <v>42.97716565529011</v>
       </c>
       <c r="R8">
         <v>386.794490897611</v>
       </c>
       <c r="S8">
-        <v>0.1858284162038836</v>
+        <v>0.1259263250949793</v>
       </c>
       <c r="T8">
-        <v>0.2494647387737799</v>
+        <v>0.1731308390120752</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>18.901559</v>
       </c>
       <c r="I9">
-        <v>0.8427158849431019</v>
+        <v>0.976381346197431</v>
       </c>
       <c r="J9">
-        <v>0.8846139661817043</v>
+        <v>0.9822127115383066</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.420191666666667</v>
+        <v>1.197510666666667</v>
       </c>
       <c r="N9">
-        <v>4.260575</v>
+        <v>3.592532</v>
       </c>
       <c r="O9">
-        <v>0.04591097398705006</v>
+        <v>0.02264201363575945</v>
       </c>
       <c r="P9">
-        <v>0.05871390114682403</v>
+        <v>0.03094474263109954</v>
       </c>
       <c r="Q9">
-        <v>8.947945526269445</v>
+        <v>7.544939506376445</v>
       </c>
       <c r="R9">
-        <v>80.53150973642499</v>
+        <v>67.904455557388</v>
       </c>
       <c r="S9">
-        <v>0.03868990707209662</v>
+        <v>0.02210723975430341</v>
       </c>
       <c r="T9">
-        <v>0.05193913696349252</v>
+        <v>0.03039431956754731</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>18.901559</v>
       </c>
       <c r="I10">
-        <v>0.8427158849431019</v>
+        <v>0.976381346197431</v>
       </c>
       <c r="J10">
-        <v>0.8846139661817043</v>
+        <v>0.9822127115383066</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>20.2357845</v>
+        <v>42.571562</v>
       </c>
       <c r="N10">
-        <v>40.471569</v>
+        <v>85.143124</v>
       </c>
       <c r="O10">
-        <v>0.6541684461278472</v>
+        <v>0.8049246776086439</v>
       </c>
       <c r="P10">
-        <v>0.5577284055609555</v>
+        <v>0.7333913960927264</v>
       </c>
       <c r="Q10">
-        <v>127.4959582126785</v>
+        <v>268.2229636217193</v>
       </c>
       <c r="R10">
-        <v>764.975749276071</v>
+        <v>1609.337781730316</v>
       </c>
       <c r="S10">
-        <v>0.5512781409804827</v>
+        <v>0.7859134403110609</v>
       </c>
       <c r="T10">
-        <v>0.4933743368954749</v>
+        <v>0.720346351775101</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>18.901559</v>
       </c>
       <c r="I11">
-        <v>0.8427158849431019</v>
+        <v>0.976381346197431</v>
       </c>
       <c r="J11">
-        <v>0.8846139661817043</v>
+        <v>0.9822127115383066</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.492337666666667</v>
+        <v>0.7731246666666668</v>
       </c>
       <c r="N11">
-        <v>4.477012999999999</v>
+        <v>2.319374</v>
       </c>
       <c r="O11">
-        <v>0.04824325997845007</v>
+        <v>0.01461790673943223</v>
       </c>
       <c r="P11">
-        <v>0.06169657821187188</v>
+        <v>0.01997823025522497</v>
       </c>
       <c r="Q11">
-        <v>9.402502818140777</v>
+        <v>4.871087167118445</v>
       </c>
       <c r="R11">
-        <v>84.62252536326699</v>
+        <v>43.839784504066</v>
       </c>
       <c r="S11">
-        <v>0.04065536152527969</v>
+        <v>0.01427265146083534</v>
       </c>
       <c r="T11">
-        <v>0.05457765475184371</v>
+        <v>0.01962287171072115</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.0623235</v>
+        <v>0.1149325</v>
       </c>
       <c r="H12">
-        <v>2.124647</v>
+        <v>0.229865</v>
       </c>
       <c r="I12">
-        <v>0.1420893729027886</v>
+        <v>0.01781090370458377</v>
       </c>
       <c r="J12">
-        <v>0.0994358406841499</v>
+        <v>0.01194485200600399</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.9640756666666667</v>
+        <v>1.525469666666667</v>
       </c>
       <c r="N12">
-        <v>2.892227</v>
+        <v>4.576409</v>
       </c>
       <c r="O12">
-        <v>0.03116597139157128</v>
+        <v>0.02884292053092702</v>
       </c>
       <c r="P12">
-        <v>0.03985704515756099</v>
+        <v>0.03941949540871108</v>
       </c>
       <c r="Q12">
-        <v>1.024160236478167</v>
+        <v>0.1753260424641667</v>
       </c>
       <c r="R12">
-        <v>6.144961418869001</v>
+        <v>1.051956254785</v>
       </c>
       <c r="S12">
-        <v>0.004428353330934613</v>
+        <v>0.0005137184801353032</v>
       </c>
       <c r="T12">
-        <v>0.003963218792428203</v>
+        <v>0.0004708600388084077</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.0623235</v>
+        <v>0.1149325</v>
       </c>
       <c r="H13">
-        <v>2.124647</v>
+        <v>0.229865</v>
       </c>
       <c r="I13">
-        <v>0.1420893729027886</v>
+        <v>0.01781090370458377</v>
       </c>
       <c r="J13">
-        <v>0.0994358406841499</v>
+        <v>0.01194485200600399</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.821209666666666</v>
+        <v>6.821209666666667</v>
       </c>
       <c r="N13">
         <v>20.463629</v>
       </c>
       <c r="O13">
-        <v>0.2205113485150814</v>
+        <v>0.1289724814852373</v>
       </c>
       <c r="P13">
-        <v>0.2820040699227877</v>
+        <v>0.1762661356122381</v>
       </c>
       <c r="Q13">
-        <v>7.246331327327167</v>
+        <v>0.7839786800141667</v>
       </c>
       <c r="R13">
-        <v>43.477987963963</v>
+        <v>4.703872080085</v>
       </c>
       <c r="S13">
-        <v>0.03133231922845619</v>
+        <v>0.002297116448274775</v>
       </c>
       <c r="T13">
-        <v>0.02804131176912419</v>
+        <v>0.002105472903558414</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.0623235</v>
+        <v>0.1149325</v>
       </c>
       <c r="H14">
-        <v>2.124647</v>
+        <v>0.229865</v>
       </c>
       <c r="I14">
-        <v>0.1420893729027886</v>
+        <v>0.01781090370458377</v>
       </c>
       <c r="J14">
-        <v>0.0994358406841499</v>
+        <v>0.01194485200600399</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.420191666666667</v>
+        <v>1.197510666666667</v>
       </c>
       <c r="N14">
-        <v>4.260575</v>
+        <v>3.592532</v>
       </c>
       <c r="O14">
-        <v>0.04591097398705006</v>
+        <v>0.02264201363575945</v>
       </c>
       <c r="P14">
-        <v>0.05871390114682403</v>
+        <v>0.03094474263109954</v>
       </c>
       <c r="Q14">
-        <v>1.508702982004167</v>
+        <v>0.1376328946966667</v>
       </c>
       <c r="R14">
-        <v>9.052217892025002</v>
+        <v>0.82579736818</v>
       </c>
       <c r="S14">
-        <v>0.006523461503176183</v>
+        <v>0.0004032747245443843</v>
       </c>
       <c r="T14">
-        <v>0.005838266120380521</v>
+        <v>0.0003696303710923667</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.0623235</v>
+        <v>0.1149325</v>
       </c>
       <c r="H15">
-        <v>2.124647</v>
+        <v>0.229865</v>
       </c>
       <c r="I15">
-        <v>0.1420893729027886</v>
+        <v>0.01781090370458377</v>
       </c>
       <c r="J15">
-        <v>0.0994358406841499</v>
+        <v>0.01194485200600399</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>20.2357845</v>
+        <v>42.571562</v>
       </c>
       <c r="N15">
-        <v>40.471569</v>
+        <v>85.143124</v>
       </c>
       <c r="O15">
-        <v>0.6541684461278472</v>
+        <v>0.8049246776086439</v>
       </c>
       <c r="P15">
-        <v>0.5577284055609555</v>
+        <v>0.7333913960927264</v>
       </c>
       <c r="Q15">
-        <v>21.49694941528575</v>
+        <v>4.892856049564999</v>
       </c>
       <c r="R15">
-        <v>85.98779766114302</v>
+        <v>19.57142419826</v>
       </c>
       <c r="S15">
-        <v>0.09295038428309746</v>
+        <v>0.01433643592233069</v>
       </c>
       <c r="T15">
-        <v>0.05545819288038412</v>
+        <v>0.008760251688804272</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.0623235</v>
+        <v>0.1149325</v>
       </c>
       <c r="H16">
-        <v>2.124647</v>
+        <v>0.229865</v>
       </c>
       <c r="I16">
-        <v>0.1420893729027886</v>
+        <v>0.01781090370458377</v>
       </c>
       <c r="J16">
-        <v>0.0994358406841499</v>
+        <v>0.01194485200600399</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.492337666666667</v>
+        <v>0.7731246666666668</v>
       </c>
       <c r="N16">
-        <v>4.477012999999999</v>
+        <v>2.319374</v>
       </c>
       <c r="O16">
-        <v>0.04824325997845007</v>
+        <v>0.01461790673943223</v>
       </c>
       <c r="P16">
-        <v>0.06169657821187188</v>
+        <v>0.01997823025522497</v>
       </c>
       <c r="Q16">
-        <v>1.585345373235167</v>
+        <v>0.08885715075166667</v>
       </c>
       <c r="R16">
-        <v>9.512072239411001</v>
+        <v>0.53314290451</v>
       </c>
       <c r="S16">
-        <v>0.00685485455712417</v>
+        <v>0.0002603581292986136</v>
       </c>
       <c r="T16">
-        <v>0.006134851121832887</v>
+        <v>0.0002386370037405336</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.01349666666666667</v>
+        <v>0.010485</v>
       </c>
       <c r="H17">
-        <v>0.04049</v>
+        <v>0.031455</v>
       </c>
       <c r="I17">
-        <v>0.001805224964847936</v>
+        <v>0.001624843498075486</v>
       </c>
       <c r="J17">
-        <v>0.001894976995849771</v>
+        <v>0.001634547755634201</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.9640756666666667</v>
+        <v>1.525469666666667</v>
       </c>
       <c r="N17">
-        <v>2.892227</v>
+        <v>4.576409</v>
       </c>
       <c r="O17">
-        <v>0.03116597139157128</v>
+        <v>0.02884292053092702</v>
       </c>
       <c r="P17">
-        <v>0.03985704515756099</v>
+        <v>0.03941949540871108</v>
       </c>
       <c r="Q17">
-        <v>0.01301180791444444</v>
+        <v>0.015994549455</v>
       </c>
       <c r="R17">
-        <v>0.11710627123</v>
+        <v>0.143950945095</v>
       </c>
       <c r="S17">
-        <v>5.626158960980106E-05</v>
+        <v>4.686523189018472E-05</v>
       </c>
       <c r="T17">
-        <v>7.552818369612361E-05</v>
+        <v>6.443304774854138E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.01349666666666667</v>
+        <v>0.010485</v>
       </c>
       <c r="H18">
-        <v>0.04049</v>
+        <v>0.031455</v>
       </c>
       <c r="I18">
-        <v>0.001805224964847936</v>
+        <v>0.001624843498075486</v>
       </c>
       <c r="J18">
-        <v>0.001894976995849771</v>
+        <v>0.001634547755634201</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>6.821209666666666</v>
+        <v>6.821209666666667</v>
       </c>
       <c r="N18">
         <v>20.463629</v>
       </c>
       <c r="O18">
-        <v>0.2205113485150814</v>
+        <v>0.1289724814852373</v>
       </c>
       <c r="P18">
-        <v>0.2820040699227877</v>
+        <v>0.1762661356122381</v>
       </c>
       <c r="Q18">
-        <v>0.09206359313444443</v>
+        <v>0.07152038335500001</v>
       </c>
       <c r="R18">
-        <v>0.8285723382099999</v>
+        <v>0.643683450195</v>
       </c>
       <c r="S18">
-        <v>0.0003980725913717088</v>
+        <v>0.0002095600979719489</v>
       </c>
       <c r="T18">
-        <v>0.0005343912252396931</v>
+        <v>0.0002881154163592974</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.01349666666666667</v>
+        <v>0.010485</v>
       </c>
       <c r="H19">
-        <v>0.04049</v>
+        <v>0.031455</v>
       </c>
       <c r="I19">
-        <v>0.001805224964847936</v>
+        <v>0.001624843498075486</v>
       </c>
       <c r="J19">
-        <v>0.001894976995849771</v>
+        <v>0.001634547755634201</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.420191666666667</v>
+        <v>1.197510666666667</v>
       </c>
       <c r="N19">
-        <v>4.260575</v>
+        <v>3.592532</v>
       </c>
       <c r="O19">
-        <v>0.04591097398705006</v>
+        <v>0.02264201363575945</v>
       </c>
       <c r="P19">
-        <v>0.05871390114682403</v>
+        <v>0.03094474263109954</v>
       </c>
       <c r="Q19">
-        <v>0.01916785352777778</v>
+        <v>0.01255589934</v>
       </c>
       <c r="R19">
-        <v>0.17251068175</v>
+        <v>0.11300309406</v>
       </c>
       <c r="S19">
-        <v>8.287963640190695E-05</v>
+        <v>3.678972863940026E-05</v>
       </c>
       <c r="T19">
-        <v>0.000111261492009829</v>
+        <v>5.058065961634173E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.01349666666666667</v>
+        <v>0.010485</v>
       </c>
       <c r="H20">
-        <v>0.04049</v>
+        <v>0.031455</v>
       </c>
       <c r="I20">
-        <v>0.001805224964847936</v>
+        <v>0.001624843498075486</v>
       </c>
       <c r="J20">
-        <v>0.001894976995849771</v>
+        <v>0.001634547755634201</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>20.2357845</v>
+        <v>42.571562</v>
       </c>
       <c r="N20">
-        <v>40.471569</v>
+        <v>85.143124</v>
       </c>
       <c r="O20">
-        <v>0.6541684461278472</v>
+        <v>0.8049246776086439</v>
       </c>
       <c r="P20">
-        <v>0.5577284055609555</v>
+        <v>0.7333913960927264</v>
       </c>
       <c r="Q20">
-        <v>0.273115638135</v>
+        <v>0.44636282757</v>
       </c>
       <c r="R20">
-        <v>1.63869382881</v>
+        <v>2.67817696542</v>
       </c>
       <c r="S20">
-        <v>0.001180921210165772</v>
+        <v>0.001307876628852912</v>
       </c>
       <c r="T20">
-        <v>0.001056882498469982</v>
+        <v>0.001198763260484799</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.01349666666666667</v>
+        <v>0.010485</v>
       </c>
       <c r="H21">
-        <v>0.04049</v>
+        <v>0.031455</v>
       </c>
       <c r="I21">
-        <v>0.001805224964847936</v>
+        <v>0.001624843498075486</v>
       </c>
       <c r="J21">
-        <v>0.001894976995849771</v>
+        <v>0.001634547755634201</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.492337666666667</v>
+        <v>0.7731246666666668</v>
       </c>
       <c r="N21">
-        <v>4.477012999999999</v>
+        <v>2.319374</v>
       </c>
       <c r="O21">
-        <v>0.04824325997845007</v>
+        <v>0.01461790673943223</v>
       </c>
       <c r="P21">
-        <v>0.06169657821187188</v>
+        <v>0.01997823025522497</v>
       </c>
       <c r="Q21">
-        <v>0.02014158404111111</v>
+        <v>0.00810621213</v>
       </c>
       <c r="R21">
-        <v>0.18127425637</v>
+        <v>0.07295590917</v>
       </c>
       <c r="S21">
-        <v>8.708993729874738E-05</v>
+        <v>2.37518107210403E-05</v>
       </c>
       <c r="T21">
-        <v>0.0001169135964341434</v>
+        <v>3.265537142522126E-05</v>
       </c>
     </row>
   </sheetData>
